--- a/data/trans_camb/P62-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P62-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P62-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P62-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 2,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 2,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 5,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 6,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 7,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 2,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 3,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 3,57</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>272,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>368,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>829,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1103,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>685,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>548,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>719,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>405,6%</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,91; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,29; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 5,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 6,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 19,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 7,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 3,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 10,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 5,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 4,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 10,34</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>225,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,4%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,92; 324,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,58; 398,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,97; 1061,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,66; 327,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,0; 150,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,92; 397,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 242,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,85; 174,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,46; 392,98</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,5; -4,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,28; -9,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,63; 8,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 8,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 7,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,92; 14,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 7,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 5,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,28; 13,48</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>186,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,93%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,75; -14,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,82; -35,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,35; 33,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,92; 249,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 209,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,42; 411,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,12; 93,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,96; 68,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,95; 167,21</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,85</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,13; -13,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,82; -15,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,66; -1,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 7,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,54; 4,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 8,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,83; 5,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,64; 3,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 9,79</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,44%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,77%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,84%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,16; -27,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,63; -33,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,03; -3,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,72; 85,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,26; 53,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,86; 94,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,52; 31,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,26; 19,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,38; 56,36</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,22</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,72</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,3; -4,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,38; -4,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,49; -3,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,58; 8,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 11,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,16; 14,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,17; 2,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,52; 5,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 6,59</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,26%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,07%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,81; -6,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,29; -6,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,94; -5,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,0; 39,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,14; 55,34</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,13; 68,37</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,01; 6,29</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,24; 12,39</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,07; 15,79</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,74</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 1,73</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 1,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,02; -9,69</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,17; 13,14</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 11,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,16; 17,51</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 8,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 6,6</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 4,9</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,87%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,63%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 1,76</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 1,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,1; -9,8</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,79; 21,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 18,25</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,81; 28,26</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,21; 10,75</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 8,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 6,45</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,54</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,06</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,39</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,98; -7,08</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,52; -4,76</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 5,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 6,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,85; 8,19</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,0; 25,65</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 2,12</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 3,74</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,78; 16,34</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,32%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,04%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,17%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,99%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,68; -13,44</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,6; -9,21</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 11,04</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,35; 29,67</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,08; 35,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,42; 105,59</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,88; 6,18</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 10,69</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,33; 45,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P62-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P62-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,1</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,78</t>
+          <t>-0,59; 2,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 7,05</t>
+          <t>0,12; 6,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 3,57</t>
+          <t>0,0; 3,19</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>144,42%</t>
+          <t>120,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>685,81%</t>
+          <t>694,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>405,6%</t>
+          <t>368,15%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>5,04</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 19,75</t>
+          <t>0,45; 19,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 10,22</t>
+          <t>-0,3; 10,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 10,34</t>
+          <t>1,15; 10,39</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>225,07%</t>
+          <t>214,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>100,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>136,4%</t>
+          <t>135,43%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 1061,99</t>
+          <t>-20,55; 1003,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,92; 397,63</t>
+          <t>-20,94; 407,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,46; 392,98</t>
+          <t>18,31; 387,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>-8,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,34</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>7,98</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 8,48</t>
+          <t>-23,57; 7,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 14,29</t>
+          <t>4,67; 13,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 13,48</t>
+          <t>2,84; 12,91</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,65%</t>
+          <t>-23,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>186,07%</t>
+          <t>179,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>85,93%</t>
+          <t>81,71%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,35; 33,14</t>
+          <t>-52,92; 29,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>73,42; 411,25</t>
+          <t>68,16; 397,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,95; 167,21</t>
+          <t>23,83; 162,19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-16,12</t>
+          <t>-16,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>4,01</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-30,66; -1,89</t>
+          <t>-30,69; -1,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,99</t>
+          <t>-0,7; 9,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 9,79</t>
+          <t>-1,52; 10,04</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-28,44%</t>
+          <t>-29,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,77%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>19,66%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,03; -3,14</t>
+          <t>-47,08; -4,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 94,4</t>
+          <t>-6,01; 95,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 56,36</t>
+          <t>-7,71; 57,18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-11,72</t>
+          <t>-12,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,17</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,49; -3,92</t>
+          <t>-20,27; -4,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,16; 14,21</t>
+          <t>1,82; 13,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 6,59</t>
+          <t>-4,39; 6,22</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-15,07%</t>
+          <t>-16,07%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>2,59%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,94; -5,07</t>
+          <t>-24,92; -5,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,13; 68,37</t>
+          <t>6,35; 66,92</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 15,79</t>
+          <t>-8,98; 14,87</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-11,74</t>
+          <t>-13,22</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>12,56</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>21,11</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>4,22</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,73</t>
+          <t>-0,12; 3,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,14</t>
+          <t>-1,87; 1,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,02; -9,69</t>
+          <t>-16,55; -9,67</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,17; 13,14</t>
+          <t>5,34; 19,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,97; 11,07</t>
+          <t>4,16; 19,04</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,16; 17,51</t>
+          <t>5,01; 41,16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,75; 8,24</t>
+          <t>2,93; 11,96</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,18; 6,6</t>
+          <t>2,17; 11,23</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 4,9</t>
+          <t>-3,67; 15,43</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-11,87%</t>
+          <t>-13,43%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,76</t>
+          <t>-0,11; 3,17</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,16</t>
+          <t>-1,89; 1,89</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-14,1; -9,8</t>
+          <t>-16,69; -9,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4,79; 21,75</t>
+          <t>10,1; 40,57</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,48; 18,25</t>
+          <t>7,48; 39,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>4,81; 28,26</t>
+          <t>9,46; 86,74</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2,21; 10,75</t>
+          <t>4,03; 17,08</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>0,2; 8,42</t>
+          <t>2,84; 15,84</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 6,45</t>
+          <t>-4,9; 21,48</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-10,54</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-8,21</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
+          <t>-11,59</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
           <t>1,83</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>4,44</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>5,55</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>16,06</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>11,39</t>
+          <t>-3,59</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-13,98; -7,08</t>
+          <t>-0,86; 1,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,52; -4,76</t>
+          <t>-1,37; 1,16</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,86</t>
+          <t>-14,74; -8,39</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,94</t>
+          <t>-4,09; 9,51</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,19</t>
+          <t>-6,62; 7,16</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>12,0; 25,65</t>
+          <t>-4,46; 6,79</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,12</t>
+          <t>-2,3; 6,56</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,74</t>
+          <t>-4,19; 4,82</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>8,78; 16,34</t>
+          <t>-7,48; 0,48</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-19,32%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-15,04%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>-11,65%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>65,17%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>-4,27%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-0,86; 1,63</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 1,18</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-14,79; -8,48</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-5,22; 13,68</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-8,6; 10,42</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 9,68</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 8,11</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; 5,92</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 0,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-10,54</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-8,21</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>4,44</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>5,55</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>18,66</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>12,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-13,98; -7,08</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-11,52; -4,76</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 3,81</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 6,94</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>2,85; 8,19</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>11,8; 34,12</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 2,12</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 3,74</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>8,17; 22,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-19,32%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-15,04%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-0,78%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>18,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>22,51%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>75,72%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-0,11%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>33,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-24,68; -13,44</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-20,6; -9,21</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 11,04</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-7,99; 7,26</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>6,35; 29,67</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>11,08; 35,38</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>47,42; 105,59</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>47,1; 140,93</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-5,88; 6,18</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-1,03; 10,69</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>24,33; 45,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>22,57; 62,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P62-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P62-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,21</t>
+          <t>-0,3; 2,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,03</t>
+          <t>0,02; 3,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,51</t>
+          <t>-0,58; 3,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,07</t>
+          <t>0,91; 4,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,31</t>
+          <t>1,41; 6,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 6,36</t>
+          <t>0,0; 5,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,99</t>
+          <t>0,54; 2,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,7</t>
+          <t>1,07; 3,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,19</t>
+          <t>0,12; 3,17</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,91; —</t>
+          <t>14,4; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>62,29; —</t>
+          <t>102,15; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 5,55</t>
+          <t>-2,49; 5,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 6,52</t>
+          <t>-1,75; 6,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 19,11</t>
+          <t>0,09; 19,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 7,58</t>
+          <t>0,41; 7,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 3,6</t>
+          <t>-2,9; 4,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 10,37</t>
+          <t>-0,53; 9,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 5,6</t>
+          <t>0,26; 5,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 4,31</t>
+          <t>-1,22; 3,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 10,39</t>
+          <t>1,1; 10,79</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,92; 324,96</t>
+          <t>-40,84; 381,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,58; 398,23</t>
+          <t>-38,59; 378,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 1003,01</t>
+          <t>-21,58; 1032,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 327,0</t>
+          <t>2,22; 348,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,0; 150,85</t>
+          <t>-56,52; 202,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 407,26</t>
+          <t>-14,83; 447,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 242,8</t>
+          <t>2,58; 230,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 174,95</t>
+          <t>-24,88; 150,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,31; 387,17</t>
+          <t>9,7; 435,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-30,5; -4,24</t>
+          <t>-30,7; -4,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,28; -9,42</t>
+          <t>-35,11; -9,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 7,78</t>
+          <t>-24,79; 6,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,65</t>
+          <t>1,32; 9,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 7,22</t>
+          <t>0,21; 7,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,67; 13,85</t>
+          <t>4,56; 13,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 7,23</t>
+          <t>-0,81; 7,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 5,02</t>
+          <t>-2,82; 4,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 12,91</t>
+          <t>3,1; 13,02</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,75; -14,33</t>
+          <t>-66,23; -16,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,82; -35,92</t>
+          <t>-75,48; -35,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,92; 29,16</t>
+          <t>-57,12; 23,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,92; 249,33</t>
+          <t>13,04; 241,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 209,0</t>
+          <t>0,05; 228,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,16; 397,54</t>
+          <t>67,98; 424,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 93,04</t>
+          <t>-6,98; 91,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,96; 68,43</t>
+          <t>-24,43; 63,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,83; 162,19</t>
+          <t>26,46; 162,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-38,13; -13,14</t>
+          <t>-37,84; -12,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -15,2</t>
+          <t>-39,88; -14,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-30,69; -1,87</t>
+          <t>-29,88; -1,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 7,74</t>
+          <t>-2,77; 7,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 4,9</t>
+          <t>-4,45; 5,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 9,25</t>
+          <t>-0,85; 8,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 5,52</t>
+          <t>-4,8; 5,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 3,41</t>
+          <t>-6,56; 3,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 10,04</t>
+          <t>-1,41; 9,88</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,16; -27,02</t>
+          <t>-59,25; -26,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-61,63; -33,08</t>
+          <t>-61,06; -31,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,08; -4,57</t>
+          <t>-47,03; -4,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 85,36</t>
+          <t>-20,44; 75,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,26; 53,28</t>
+          <t>-32,01; 55,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 95,99</t>
+          <t>-5,5; 98,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 31,03</t>
+          <t>-19,94; 31,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 19,59</t>
+          <t>-28,21; 20,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 57,18</t>
+          <t>-6,53; 56,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,3; -4,52</t>
+          <t>-20,67; -4,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,38; -4,78</t>
+          <t>-21,12; -4,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-20,27; -4,51</t>
+          <t>-19,5; -4,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 8,25</t>
+          <t>-5,03; 8,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 11,74</t>
+          <t>-2,02; 12,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,82; 13,85</t>
+          <t>1,93; 13,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 2,74</t>
+          <t>-9,35; 2,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 5,23</t>
+          <t>-6,0; 5,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 6,22</t>
+          <t>-4,36; 6,16</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,81; -6,16</t>
+          <t>-25,91; -6,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,29; -6,6</t>
+          <t>-26,1; -6,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,92; -5,9</t>
+          <t>-24,44; -6,74</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 39,45</t>
+          <t>-18,54; 37,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 55,34</t>
+          <t>-7,99; 56,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,35; 66,92</t>
+          <t>6,96; 65,31</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 6,29</t>
+          <t>-19,25; 5,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 12,39</t>
+          <t>-12,29; 12,73</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 14,87</t>
+          <t>-9,21; 14,75</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,07</t>
+          <t>-0,15; 2,76</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,84</t>
+          <t>-1,87; 1,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,55; -9,67</t>
+          <t>-16,69; -10,23</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,34; 19,52</t>
+          <t>5,09; 20,08</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,16; 19,04</t>
+          <t>4,58; 18,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,01; 41,16</t>
+          <t>4,83; 40,57</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,93; 11,96</t>
+          <t>3,13; 12,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,17; 11,23</t>
+          <t>2,03; 10,61</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 15,43</t>
+          <t>-3,37; 16,11</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,17</t>
+          <t>-0,15; 2,83</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,89</t>
+          <t>-1,88; 1,78</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-16,69; -9,96</t>
+          <t>-16,85; -10,46</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>10,1; 40,57</t>
+          <t>9,15; 41,78</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>7,48; 39,4</t>
+          <t>8,5; 40,17</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>9,46; 86,74</t>
+          <t>9,14; 84,26</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>4,03; 17,08</t>
+          <t>4,12; 17,29</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2,84; 15,84</t>
+          <t>2,7; 15,09</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 21,48</t>
+          <t>-4,51; 22,52</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,59</t>
+          <t>-0,87; 2,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,16</t>
+          <t>-1,31; 1,62</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,74; -8,39</t>
+          <t>-15,02; -8,26</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 9,51</t>
+          <t>-3,65; 9,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 7,16</t>
+          <t>-6,67; 7,92</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 6,79</t>
+          <t>-4,59; 7,29</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 6,56</t>
+          <t>-2,63; 6,13</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 4,82</t>
+          <t>-4,19; 4,83</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 0,48</t>
+          <t>-7,44; 0,4</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,63</t>
+          <t>-0,87; 2,04</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,18</t>
+          <t>-1,31; 1,65</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-14,79; -8,48</t>
+          <t>-15,04; -8,37</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 13,68</t>
+          <t>-4,7; 14,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 10,42</t>
+          <t>-8,68; 11,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 9,68</t>
+          <t>-5,88; 10,49</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 8,11</t>
+          <t>-3,06; 7,54</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,92</t>
+          <t>-4,85; 5,92</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 0,58</t>
+          <t>-8,66; 0,49</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-13,98; -7,08</t>
+          <t>-14,1; -6,94</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-11,52; -4,76</t>
+          <t>-11,59; -4,86</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,81</t>
+          <t>-4,57; 3,51</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,94</t>
+          <t>1,83; 6,89</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,19</t>
+          <t>2,81; 8,16</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>11,8; 34,12</t>
+          <t>11,97; 36,22</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,12</t>
+          <t>-2,08; 2,3</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,74</t>
+          <t>-0,31; 4,1</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>8,17; 22,7</t>
+          <t>8,14; 23,3</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-24,68; -13,44</t>
+          <t>-25,03; -13,3</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-20,6; -9,21</t>
+          <t>-20,64; -9,42</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 7,26</t>
+          <t>-8,0; 6,66</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>6,35; 29,67</t>
+          <t>7,01; 29,37</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>11,08; 35,38</t>
+          <t>10,56; 34,94</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>47,1; 140,93</t>
+          <t>47,7; 142,68</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 6,18</t>
+          <t>-5,61; 6,69</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 10,69</t>
+          <t>-0,83; 11,75</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>22,57; 62,88</t>
+          <t>22,51; 65,35</t>
         </is>
       </c>
     </row>
